--- a/kulioh-admin/public/sample/weeklyQuestion.xlsx
+++ b/kulioh-admin/public/sample/weeklyQuestion.xlsx
@@ -8,19 +8,19 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="tryout" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">“bacterial and fungal cutaneous pathogens”</t>
   </si>
   <si>
-    <t xml:space="preserve"> “more complex lipids”</t>
+    <t xml:space="preserve">“more complex lipids”</t>
   </si>
   <si>
     <t xml:space="preserve">Although pathogenic organisms constantly alight on the skin, they find it a very unfavorable environment and, in the absence of injury, have great difficulty colonizing it. This “self-sterilizing” capacity of the skin results from the tendency of all well-developed ecosystems toward homeostasis, or the maintenance of the status quo.~Species that typically live in soil, water, and elsewhere rarely multiply on the skin. Undamaged skin is also unfavorable to most human pathogens. The skin is too acid and too arid for some species. The constant shedding of the surface skin layers further hinders the establishment of invaders.~The most interesting defense mechanism, however, results from the metabolic activities of the resident flora. Unsaturated fatty acids, an important component of the lipids in sebum collected from the skin surface, inhibit the growth of several bacterial and fungal cutaneous pathogens. These acids are a metabolic product of certain gram-positive members of the cutaneous community, which break down the more complex lipids in freshly secreted sebum.~Among the natural defenses of the skin against pathogenic organisms are all of the following EXCEPT the</t>
@@ -151,12 +151,6 @@
     <t xml:space="preserve">170/1615</t>
   </si>
   <si>
-    <t xml:space="preserve">3/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jika $$n$$ adalah suatu bilangan bulat positif yang habis dibagi 4 dan juga habis dibagi 21, maka $$n$$ juga pasti habis dibagi …</t>
   </si>
   <si>
@@ -283,10 +277,7 @@
     <t xml:space="preserve">Disadur dari goodnewsfromindonesia.id~(1) Cerita rakyat masyarakat Sunda, Lutung Kasarung, difilmkan pada zaman kolonialisme Belanda dengan judul Loetoeng Kasaroeng. (2) Film Loetoeng Kasaroeng merupakan film pertama asli Indonesia. (3) Pada era film bisu tersebut, film Loetoeng Kasaroeng dirilis NV Java Film Company dan ditayangkan pada 31 Desember 1926. (4) Pemutaran perdananya digelar di Bioskop Elita (Majestic), Jalan Braga, Bandung. (5) Jam penayangannya dibuka pada malam hari pukul 19.30 sampai 21.00. (6) Karena filmnya merupakan film bisu, penayangan film ini diiringi oleh suatu orkes musik. (7) Film Loetoeng Kasaroeng disutradarai oleh sutradara asal Belanda. (8) Film tersebut dikomandoi sutradara asing, tetapi seluruh pemainnya merupakan pribumi. (9) Film Loetoeng Kasaroeng tayang selama setahun yakni hingga 6 Januari 1928 dan sukses menarik banyak penonton.~Pada bacaan di atas, ada berapa banyak kalimat yang pola kalimatnya mengandung keterangan waktu dan keterangan tempat?</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Kalimat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Kalimat </t>
+    <t xml:space="preserve">1 Kalimat</t>
   </si>
   <si>
     <t xml:space="preserve">Disadur dari goodnewsfromindonesia.id~(1) Cerita rakyat masyarakat Sunda, Lutung Kasarung, difilmkan pada zaman kolonialisme Belanda dengan judul Loetoeng Kasaroeng. (2) Film Loetoeng Kasaroeng merupakan film pertama asli Indonesia. (3) Pada era film bisu tersebut, film Loetoeng Kasaroeng dirilis NV Java Film Company dan ditayangkan pada 31 Desember 1926. (4) Pemutaran perdananya digelar di Bioskop Elita (Majestic), Jalan Braga, Bandung. (5) Jam penayangannya dibuka pada malam hari pukul 19.30 sampai 21.00. (6) Karena filmnya merupakan film bisu, penayangan film ini diiringi oleh suatu orkes musik. (7) Film Loetoeng Kasaroeng disutradarai oleh sutradara asal Belanda. (8) Film tersebut dikomandoi sutradara asing, tetapi seluruh pemainnya merupakan pribumi. (9) Film Loetoeng Kasaroeng tayang selama setahun yakni hingga 6 Januari 1928 dan sukses menarik banyak penonton.~Pada bacaan di atas, kalimat manakah yang pola kalimatnya mengandung objek dan pelengkap?1) Kalimat 3~1) Kalimat 6~3) Kalimat 8</t>
@@ -316,24 +307,25 @@
     <t xml:space="preserve">6 dan 8</t>
   </si>
   <si>
-    <t xml:space="preserve">1 dan 9 </t>
+    <t xml:space="preserve">1 dan 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="d/m"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="167" formatCode="d\-mmm"/>
   </numFmts>
   <fonts count="9">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -352,31 +344,31 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Bahnschrift"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <family val="0"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -384,7 +376,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Bahnschrift"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -402,12 +394,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -436,37 +443,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -478,6 +493,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -486,20 +561,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +597,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -547,7 +621,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -571,7 +645,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -595,7 +669,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -619,7 +693,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -643,55 +717,55 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="5" t="n">
         <v>37</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="5" t="n">
         <v>504</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="5" t="n">
         <v>5040</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -701,312 +775,329 @@
       <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="5" t="n">
+      <c r="D9" s="6" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>43678</v>
+      </c>
+      <c r="F9" s="7" t="n">
         <v>44684</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="7" t="n">
         <v>44685</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="n">
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="5" t="n">
         <v>48</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="120.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C12" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="315.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="G12" s="1" t="n">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="D17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="270.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="270.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="E19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="270.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="E21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H21" s="3"/>
     </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
